--- a/biology/Botanique/Forêts_mixtes_des_Balkans/Forêts_mixtes_des_Balkans.xlsx
+++ b/biology/Botanique/Forêts_mixtes_des_Balkans/Forêts_mixtes_des_Balkans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_des_Balkans</t>
+          <t>Forêts_mixtes_des_Balkans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes des Balkans forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui recouvre la partie orientale de la péninsule des Balkans. Elles appartiennent au biome des forêts de feuillus et forêts mixtes tempérées dans l'écozone paléarctique.
 </t>
